--- a/Inputs/Question-1.xlsx
+++ b/Inputs/Question-1.xlsx
@@ -26,10 +26,10 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>Question1  220120</t>
-  </si>
-  <si>
-    <t>Question1  220120 Summary</t>
+    <t>Question1  230120</t>
+  </si>
+  <si>
+    <t>Question1  230120 Summary</t>
   </si>
   <si>
     <t>SomeEmails</t>
@@ -38,55 +38,55 @@
     <t>Planning &amp; Strategy</t>
   </si>
   <si>
-    <t>Question2  220120</t>
-  </si>
-  <si>
-    <t>Question2  220120 Summary</t>
+    <t>Question2  230120</t>
+  </si>
+  <si>
+    <t>Question2  230120 Summary</t>
   </si>
   <si>
     <t>Emerging Technologies</t>
   </si>
   <si>
-    <t>Question3  220120</t>
-  </si>
-  <si>
-    <t>Question3  220120 Summary</t>
+    <t>Question3  230120</t>
+  </si>
+  <si>
+    <t>Question3  230120 Summary</t>
   </si>
   <si>
     <t>Staffing &amp; Training</t>
   </si>
   <si>
-    <t>Question4  220120</t>
-  </si>
-  <si>
-    <t>Question4  220120 Summary</t>
+    <t>Question4  230120</t>
+  </si>
+  <si>
+    <t>Question4  230120 Summary</t>
   </si>
   <si>
     <t>Management Technology</t>
   </si>
   <si>
-    <t>Question5  220120</t>
-  </si>
-  <si>
-    <t>Question5  220120 Summary</t>
+    <t>Question5  230120</t>
+  </si>
+  <si>
+    <t>Question5  230120 Summary</t>
   </si>
   <si>
     <t>Risk &amp; Resiliency</t>
   </si>
   <si>
-    <t>Question6  220120</t>
-  </si>
-  <si>
-    <t>Question6  220120 Summary</t>
+    <t>Question6  230120</t>
+  </si>
+  <si>
+    <t>Question6  230120 Summary</t>
   </si>
   <si>
     <t>New Builds &amp; Equipment</t>
   </si>
   <si>
-    <t>Question7  220120</t>
-  </si>
-  <si>
-    <t>Question7  220120 Summary</t>
+    <t>Question7  230120</t>
+  </si>
+  <si>
+    <t>Question7  230120 Summary</t>
   </si>
   <si>
     <t>Distributed Infrastructure</t>
